--- a/file/archives/ranking - 1.xlsx
+++ b/file/archives/ranking - 1.xlsx
@@ -1,41 +1,632 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\archives\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38F20B-A6CD-42AA-9AC5-C031BDBC51FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="200">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Victories</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Loses</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Majors</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>Tournaments Trophies</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>BonusType</t>
+  </si>
+  <si>
+    <t>BonusRemaining</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:19:58.721Z</t>
+  </si>
+  <si>
+    <t>The Huns</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:06.168Z</t>
+  </si>
+  <si>
+    <t>Verdant</t>
+  </si>
+  <si>
+    <t>AS/SIS/ESEA</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:14.058Z</t>
+  </si>
+  <si>
+    <t>Bad News Eagles</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:44.273Z</t>
+  </si>
+  <si>
+    <t>Elevate</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:21:57.658Z</t>
+  </si>
+  <si>
+    <t>Iluminar</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:06.663Z</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:13.604Z</t>
+  </si>
+  <si>
+    <t>Bounty Hunters</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:20.745Z</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:32.047Z</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:39.402Z</t>
+  </si>
+  <si>
+    <t>MIBR</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:48.652Z</t>
+  </si>
+  <si>
+    <t>GODSENT</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:22:57.244Z</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:06.529Z</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:12.952Z</t>
+  </si>
+  <si>
+    <t>RED Canids</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:18.851Z</t>
+  </si>
+  <si>
+    <t>ECSTATIC</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:23:30.347Z</t>
+  </si>
+  <si>
+    <t>00 Nation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100 Thieves</t>
+  </si>
+  <si>
+    <t>3DMAX</t>
+  </si>
+  <si>
+    <t>9Pandas</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>AMKAL</t>
+  </si>
+  <si>
+    <t>Aravt</t>
+  </si>
+  <si>
+    <t>ARCRED</t>
+  </si>
+  <si>
+    <t>Astana Dragons</t>
+  </si>
+  <si>
+    <t>Astralis</t>
+  </si>
+  <si>
+    <t>Astralis Talent</t>
+  </si>
+  <si>
+    <t>ATOX</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Avangar</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>BC.Game</t>
+  </si>
+  <si>
+    <t>BESTIA</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>BIG Academy</t>
+  </si>
+  <si>
+    <t>Bravado</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>CatEvil</t>
+  </si>
+  <si>
+    <t>Chinggis Warrios</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>Copenhagen Flames</t>
+  </si>
+  <si>
+    <t>Copenhagen Wolves</t>
+  </si>
+  <si>
+    <t>Counter Logic Games</t>
+  </si>
+  <si>
+    <t>Dignitas</t>
+  </si>
+  <si>
+    <t>ENCE</t>
+  </si>
+  <si>
+    <t>ENCE Academy</t>
+  </si>
+  <si>
+    <t>Entropiq</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
+    <t>Evil Geniuses</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>FaZe</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>FLuffy Gangsters</t>
+  </si>
+  <si>
+    <t>FlyQuest</t>
+  </si>
+  <si>
+    <t>FlyQuest RED</t>
+  </si>
+  <si>
+    <t>Fnatic</t>
+  </si>
+  <si>
+    <t>FORZE</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Galorys</t>
+  </si>
+  <si>
+    <t>Gambit</t>
+  </si>
+  <si>
+    <t>GamerLegion</t>
+  </si>
+  <si>
+    <t>GATERON</t>
+  </si>
+  <si>
+    <t>GhoulsW</t>
+  </si>
+  <si>
+    <t>Gods Reign</t>
+  </si>
+  <si>
+    <t>HAVU</t>
+  </si>
+  <si>
+    <t>Heroic</t>
+  </si>
+  <si>
+    <t>Heroic Academy</t>
+  </si>
+  <si>
+    <t>Hesta</t>
+  </si>
+  <si>
+    <t>Homyno</t>
+  </si>
+  <si>
+    <t>hoorai</t>
+  </si>
+  <si>
+    <t>iBUYPOWER</t>
+  </si>
+  <si>
+    <t>Immortals</t>
+  </si>
+  <si>
+    <t>inSanitY</t>
+  </si>
+  <si>
+    <t>Into the Beach</t>
+  </si>
+  <si>
+    <t>Kinguin</t>
+  </si>
+  <si>
+    <t>kONO</t>
+  </si>
+  <si>
+    <t>LDLC</t>
+  </si>
+  <si>
+    <t>LGB eSports</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>Lynn Vision</t>
+  </si>
+  <si>
+    <t>MAD Lions</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>MenaceGG</t>
+  </si>
+  <si>
+    <t>MIBR Academy</t>
+  </si>
+  <si>
+    <t>Misfits</t>
+  </si>
+  <si>
+    <t>mousesports</t>
+  </si>
+  <si>
+    <t>MOUZ</t>
+  </si>
+  <si>
+    <t>MOUZ NXT</t>
+  </si>
+  <si>
+    <t>Movistar KOI</t>
+  </si>
+  <si>
+    <t>Natus Vincere</t>
+  </si>
+  <si>
+    <t>NAVI Junior</t>
+  </si>
+  <si>
+    <t>Nemiga</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Ninjas in Pyjamas</t>
+  </si>
+  <si>
+    <t>NIP Impact</t>
+  </si>
+  <si>
+    <t>NomadS</t>
+  </si>
+  <si>
+    <t>Nordix</t>
+  </si>
+  <si>
+    <t>NOVAQ</t>
+  </si>
+  <si>
+    <t>ODDIK</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>Onyx Ravens</t>
+  </si>
+  <si>
+    <t>Outsiders</t>
+  </si>
+  <si>
+    <t>paiN Academy</t>
+  </si>
+  <si>
+    <t>PARIVISION</t>
+  </si>
+  <si>
+    <t>Passion UA</t>
+  </si>
+  <si>
+    <t>Permitta</t>
+  </si>
+  <si>
+    <t>Qiang</t>
+  </si>
+  <si>
+    <t>QMISTRY</t>
+  </si>
+  <si>
+    <t>Quantum Bellator Fire</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Rebels</t>
+  </si>
+  <si>
+    <t>Red Viperz</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Sangal</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>Shika</t>
+  </si>
+  <si>
+    <t>ShindeN</t>
+  </si>
+  <si>
+    <t>Skinvault</t>
+  </si>
+  <si>
+    <t>SKYFURY</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>Space Soldiers</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Spirit Academy</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Take Flyte</t>
+  </si>
+  <si>
+    <t>TALON</t>
+  </si>
+  <si>
+    <t>The Dice</t>
+  </si>
+  <si>
+    <t>The MongolZ</t>
+  </si>
+  <si>
+    <t>Tricked</t>
+  </si>
+  <si>
+    <t>True Rippers</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>VeryGames</t>
+  </si>
+  <si>
+    <t>Victores Sumus</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>Vox Eminor</t>
+  </si>
+  <si>
+    <t>VP.Prodigy</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>Wildcard Academy</t>
+  </si>
+  <si>
+    <t>Wings Up</t>
+  </si>
+  <si>
+    <t>devils.one</t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>IHC</t>
+  </si>
+  <si>
+    <t>Kappa Bar</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>FURIA</t>
+  </si>
+  <si>
+    <t>KRU</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>9z</t>
+  </si>
+  <si>
+    <t>paiN</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Vexed</t>
+  </si>
+  <si>
+    <t>2026-02-18T21:19:58.722Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +656,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,59 +995,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Team</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Victories</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Streak</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Loses</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Points</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Majors</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Prestige</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Tournaments Trophies</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Tier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Region</v>
-      </c>
-      <c r="K1" t="str">
-        <v>BonusType</v>
-      </c>
-      <c r="L1" t="str">
-        <v>BonusRemaining</v>
-      </c>
-      <c r="M1" t="str">
-        <v>LastUpdated</v>
-      </c>
-      <c r="N1" t="str">
-        <v>BonusReamining</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Wizards</v>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -471,28 +1070,25 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J2" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K2" t="str">
-        <v>none</v>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="str">
-        <v>2026-02-18T21:19:58.721Z</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>The Huns</v>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -515,28 +1111,25 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J3" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K3" t="str">
-        <v>none</v>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Verdant</v>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -559,28 +1152,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J4" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K4" t="str">
-        <v>none</v>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Bad News Eagles</v>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -603,28 +1193,25 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J5" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K5" t="str">
-        <v>none</v>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Elevate</v>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -647,28 +1234,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J6" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K6" t="str">
-        <v>none</v>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Iluminar</v>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -691,28 +1275,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J7" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K7" t="str">
-        <v>none</v>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Orbit</v>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -735,28 +1316,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J8" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K8" t="str">
-        <v>none</v>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Bounty Hunters</v>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -779,28 +1357,25 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J9" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K9" t="str">
-        <v>none</v>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Liquid</v>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -823,28 +1398,25 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J10" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K10" t="str">
-        <v>none</v>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Titan</v>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -867,28 +1439,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J11" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K11" t="str">
-        <v>none</v>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>MIBR</v>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -911,28 +1480,25 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J12" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K12" t="str">
-        <v>none</v>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>GODSENT</v>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -955,28 +1521,25 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J13" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K13" t="str">
-        <v>none</v>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>M80</v>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -999,28 +1562,25 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J14" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K14" t="str">
-        <v>none</v>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>SK</v>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1043,28 +1603,25 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J15" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K15" t="str">
-        <v>none</v>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>RED Canids</v>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1087,28 +1644,25 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J16" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K16" t="str">
-        <v>none</v>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>ECSTATIC</v>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1131,28 +1685,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J17" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K17" t="str">
-        <v>none</v>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>00 Nation</v>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1175,28 +1726,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J18" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K18" t="str">
-        <v>none</v>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>100 Thieves</v>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1219,28 +1767,25 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J19" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K19" t="str">
-        <v>none</v>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>3DMAX</v>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1263,28 +1808,25 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J20" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K20" t="str">
-        <v>none</v>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>9Pandas</v>
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1307,28 +1849,25 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J21" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K21" t="str">
-        <v>none</v>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="str">
-        <v/>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>ad hoc</v>
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1351,28 +1890,25 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J22" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K22" t="str">
-        <v>none</v>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="str">
-        <v/>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Aether</v>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1395,28 +1931,25 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J23" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K23" t="str">
-        <v>none</v>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Alliance</v>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1439,28 +1972,25 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J24" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K24" t="str">
-        <v>none</v>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="str">
-        <v/>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>AMKAL</v>
+      <c r="M24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1483,28 +2013,25 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J25" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K25" t="str">
-        <v>none</v>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Aravt</v>
+      <c r="M25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1527,28 +2054,25 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J26" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K26" t="str">
-        <v>none</v>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="str">
-        <v/>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>ARCRED</v>
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1571,28 +2095,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J27" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K27" t="str">
-        <v>none</v>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Astana Dragons</v>
+      <c r="M27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1615,28 +2136,25 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J28" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K28" t="str">
-        <v>none</v>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Astralis</v>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1659,28 +2177,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J29" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K29" t="str">
-        <v>none</v>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Astralis Talent</v>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1703,28 +2218,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J30" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K30" t="str">
-        <v>none</v>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>ATOX</v>
+      <c r="M30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1747,28 +2259,25 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J31" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K31" t="str">
-        <v>none</v>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Aurora</v>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1791,28 +2300,25 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J32" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K32" t="str">
-        <v>none</v>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="str">
-        <v/>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Avangar</v>
+      <c r="M32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1835,28 +2341,25 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J33" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K33" t="str">
-        <v>none</v>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="str">
-        <v/>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>B8</v>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1879,28 +2382,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J34" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K34" t="str">
-        <v>none</v>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>BC.Game</v>
+      <c r="M34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1923,28 +2423,25 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J35" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K35" t="str">
-        <v>none</v>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>BESTIA</v>
+      <c r="M35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1967,28 +2464,25 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J36" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K36" t="str">
-        <v>none</v>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>BIG</v>
+      <c r="M36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2011,28 +2505,25 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J37" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K37" t="str">
-        <v>none</v>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="str">
-        <v/>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>BIG Academy</v>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2055,28 +2546,25 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J38" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K38" t="str">
-        <v>none</v>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="str">
-        <v/>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Bravado</v>
+      <c r="M38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2099,28 +2587,25 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J39" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K39" t="str">
-        <v>none</v>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="str">
-        <v/>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>Carnival</v>
+      <c r="M39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>73</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2143,28 +2628,25 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J40" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K40" t="str">
-        <v>none</v>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="str">
-        <v/>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>CatEvil</v>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2187,28 +2669,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J41" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K41" t="str">
-        <v>none</v>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="str">
-        <v/>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Chinggis Warrios</v>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2231,28 +2710,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J42" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K42" t="str">
-        <v>none</v>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="str">
-        <v/>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Cloud9</v>
+      <c r="M42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2275,28 +2751,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J43" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K43" t="str">
-        <v>none</v>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="str">
-        <v/>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Copenhagen Flames</v>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2319,28 +2792,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J44" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K44" t="str">
-        <v>none</v>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="str">
-        <v/>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Copenhagen Wolves</v>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2363,28 +2833,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J45" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K45" t="str">
-        <v>none</v>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="str">
-        <v/>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Counter Logic Games</v>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2407,28 +2874,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J46" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K46" t="str">
-        <v>none</v>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="str">
-        <v/>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Dignitas</v>
+      <c r="M46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>80</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2451,28 +2915,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J47" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K47" t="str">
-        <v>none</v>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="str">
-        <v/>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>ENCE</v>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>81</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2495,28 +2956,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J48" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K48" t="str">
-        <v>none</v>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="str">
-        <v/>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>ENCE Academy</v>
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2539,28 +2997,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J49" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K49" t="str">
-        <v>none</v>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="str">
-        <v/>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Entropiq</v>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2583,28 +3038,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J50" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K50" t="str">
-        <v>none</v>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="str">
-        <v/>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Envy</v>
+      <c r="M50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2627,28 +3079,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J51" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K51" t="str">
-        <v>none</v>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="str">
-        <v/>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>ESC</v>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2671,28 +3120,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J52" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K52" t="str">
-        <v>none</v>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="str">
-        <v/>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Eternal Fire</v>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>86</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2715,28 +3161,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J53" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K53" t="str">
-        <v>none</v>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="str">
-        <v/>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Evil Geniuses</v>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>87</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2759,28 +3202,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J54" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K54" t="str">
-        <v>none</v>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="str">
-        <v/>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Falcons</v>
+      <c r="M54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>88</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2803,28 +3243,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J55" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K55" t="str">
-        <v>none</v>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="str">
-        <v/>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>FaZe</v>
+      <c r="M55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>89</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2847,28 +3284,25 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J56" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K56" t="str">
-        <v>none</v>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="str">
-        <v/>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Flash</v>
+      <c r="M56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2891,28 +3325,25 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J57" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K57" t="str">
-        <v>none</v>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="str">
-        <v/>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>FLuffy Gangsters</v>
+      <c r="M57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2935,28 +3366,25 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J58" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K58" t="str">
-        <v>none</v>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="str">
-        <v/>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>FlyQuest</v>
+      <c r="M58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>92</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2979,28 +3407,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J59" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K59" t="str">
-        <v>none</v>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="str">
-        <v/>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>FlyQuest RED</v>
+      <c r="M59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>93</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3023,28 +3448,25 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J60" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K60" t="str">
-        <v>none</v>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="str">
-        <v/>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Fnatic</v>
+      <c r="M60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>94</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3067,28 +3489,25 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J61" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K61" t="str">
-        <v>none</v>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="str">
-        <v/>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>FORZE</v>
+      <c r="M61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>95</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3111,28 +3530,25 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J62" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K62" t="str">
-        <v>none</v>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="str">
-        <v/>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>G2</v>
+      <c r="M62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>96</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3155,28 +3571,25 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J63" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K63" t="str">
-        <v>none</v>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="str">
-        <v/>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Galorys</v>
+      <c r="M63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3199,28 +3612,25 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J64" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K64" t="str">
-        <v>none</v>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="str">
-        <v/>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Gambit</v>
+      <c r="M64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3243,28 +3653,25 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J65" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K65" t="str">
-        <v>none</v>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="str">
-        <v/>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>GamerLegion</v>
+      <c r="M65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>99</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3287,28 +3694,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J66" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K66" t="str">
-        <v>none</v>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="str">
-        <v/>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>GATERON</v>
+      <c r="M66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>100</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3331,28 +3735,25 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J67" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K67" t="str">
-        <v>none</v>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="str">
-        <v/>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>GhoulsW</v>
+      <c r="M67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3375,28 +3776,25 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J68" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K68" t="str">
-        <v>none</v>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>16</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="str">
-        <v/>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Gods Reign</v>
+      <c r="M68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3419,28 +3817,25 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J69" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K69" t="str">
-        <v>none</v>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="str">
-        <v/>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>HAVU</v>
+      <c r="M69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>103</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3463,28 +3858,25 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J70" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K70" t="str">
-        <v>none</v>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="str">
-        <v/>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Heroic</v>
+      <c r="M70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>104</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3507,28 +3899,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J71" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K71" t="str">
-        <v>none</v>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="str">
-        <v/>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>Heroic Academy</v>
+      <c r="M71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>105</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3551,28 +3940,25 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J72" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K72" t="str">
-        <v>none</v>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="str">
-        <v/>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Hesta</v>
+      <c r="M72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>106</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3595,28 +3981,25 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J73" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K73" t="str">
-        <v>none</v>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>16</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="str">
-        <v/>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Homyno</v>
+      <c r="M73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>107</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3639,28 +4022,25 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J74" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K74" t="str">
-        <v>none</v>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="str">
-        <v/>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>hoorai</v>
+      <c r="M74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3683,28 +4063,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J75" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K75" t="str">
-        <v>none</v>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="str">
-        <v/>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>iBUYPOWER</v>
+      <c r="M75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3727,28 +4104,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J76" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K76" t="str">
-        <v>none</v>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="str">
-        <v/>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Immortals</v>
+      <c r="M76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3771,28 +4145,25 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J77" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K77" t="str">
-        <v>none</v>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" t="s">
+        <v>16</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="str">
-        <v/>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>inSanitY</v>
+      <c r="M77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>111</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3815,28 +4186,25 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J78" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K78" t="str">
-        <v>none</v>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>16</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="str">
-        <v/>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Into the Beach</v>
+      <c r="M78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>112</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3859,28 +4227,25 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J79" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K79" t="str">
-        <v>none</v>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" t="s">
+        <v>16</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="str">
-        <v/>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>Kinguin</v>
+      <c r="M79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>113</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3903,28 +4268,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J80" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K80" t="str">
-        <v>none</v>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>16</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="str">
-        <v/>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>kONO</v>
+      <c r="M80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>114</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3947,28 +4309,25 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J81" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K81" t="str">
-        <v>none</v>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>16</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="str">
-        <v/>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>LDLC</v>
+      <c r="M81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>115</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3991,28 +4350,25 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J82" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K82" t="str">
-        <v>none</v>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>16</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="str">
-        <v/>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>LGB eSports</v>
+      <c r="M82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>116</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4035,28 +4391,25 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J83" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K83" t="str">
-        <v>none</v>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="str">
-        <v/>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Limitless</v>
+      <c r="M83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>117</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4079,28 +4432,25 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J84" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K84" t="str">
-        <v>none</v>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="str">
-        <v/>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Lynn Vision</v>
+      <c r="M84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4123,28 +4473,25 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J85" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K85" t="str">
-        <v>none</v>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>16</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="str">
-        <v/>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>MAD Lions</v>
+      <c r="M85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4167,28 +4514,25 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J86" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K86" t="str">
-        <v>none</v>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>16</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="str">
-        <v/>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>MANA</v>
+      <c r="M86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>120</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4211,28 +4555,25 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J87" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K87" t="str">
-        <v>none</v>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" t="s">
+        <v>16</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="str">
-        <v/>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>MenaceGG</v>
+      <c r="M87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>121</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4255,28 +4596,25 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J88" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K88" t="str">
-        <v>none</v>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>16</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="str">
-        <v/>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>MIBR Academy</v>
+      <c r="M88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4299,28 +4637,25 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J89" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K89" t="str">
-        <v>none</v>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>16</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="str">
-        <v/>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Misfits</v>
+      <c r="M89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>123</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4343,28 +4678,25 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J90" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K90" t="str">
-        <v>none</v>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>16</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="str">
-        <v/>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>mousesports</v>
+      <c r="M90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4387,28 +4719,25 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J91" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K91" t="str">
-        <v>none</v>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>16</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="str">
-        <v/>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>MOUZ</v>
+      <c r="M91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>125</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4431,28 +4760,25 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J92" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K92" t="str">
-        <v>none</v>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>16</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="str">
-        <v/>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>MOUZ NXT</v>
+      <c r="M92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>126</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4475,28 +4801,25 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J93" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K93" t="str">
-        <v>none</v>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" t="s">
+        <v>16</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="str">
-        <v/>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Movistar KOI</v>
+      <c r="M93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>127</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4519,28 +4842,25 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J94" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K94" t="str">
-        <v>none</v>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>16</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" t="str">
-        <v/>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Natus Vincere</v>
+      <c r="M94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>128</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4563,28 +4883,25 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J95" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K95" t="str">
-        <v>none</v>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>16</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95" t="str">
-        <v/>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>NAVI Junior</v>
+      <c r="M95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>129</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4607,28 +4924,25 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J96" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K96" t="str">
-        <v>none</v>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>16</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="str">
-        <v/>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Nemiga</v>
+      <c r="M96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>130</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4651,28 +4965,25 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J97" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K97" t="str">
-        <v>none</v>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s">
+        <v>16</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="str">
-        <v/>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Nexus</v>
+      <c r="M97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>131</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4695,28 +5006,25 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J98" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K98" t="str">
-        <v>none</v>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" t="s">
+        <v>16</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="str">
-        <v/>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Ninjas in Pyjamas</v>
+      <c r="M98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>132</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4739,28 +5047,25 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J99" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K99" t="str">
-        <v>none</v>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" t="s">
+        <v>16</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="str">
-        <v/>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>NIP Impact</v>
+      <c r="M99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>133</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4783,28 +5088,25 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J100" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K100" t="str">
-        <v>none</v>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>16</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="str">
-        <v/>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>NomadS</v>
+      <c r="M100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>134</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4827,28 +5129,25 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J101" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K101" t="str">
-        <v>none</v>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" t="s">
+        <v>16</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="str">
-        <v/>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Nordix</v>
+      <c r="M101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>135</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4871,28 +5170,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J102" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K102" t="str">
-        <v>none</v>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="str">
-        <v/>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>NOVAQ</v>
+      <c r="M102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>136</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4915,28 +5211,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J103" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K103" t="str">
-        <v>none</v>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>16</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="str">
-        <v/>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>ODDIK</v>
+      <c r="M103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>137</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4959,28 +5252,25 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J104" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K104" t="str">
-        <v>none</v>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" t="s">
+        <v>16</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="str">
-        <v/>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>OG</v>
+      <c r="M104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>138</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5003,28 +5293,25 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J105" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K105" t="str">
-        <v>none</v>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105" t="s">
+        <v>16</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="str">
-        <v/>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>Onyx Ravens</v>
+      <c r="M105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>139</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5047,28 +5334,25 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J106" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K106" t="str">
-        <v>none</v>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" t="s">
+        <v>16</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="str">
-        <v/>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>Outsiders</v>
+      <c r="M106" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>140</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5091,28 +5375,25 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J107" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K107" t="str">
-        <v>none</v>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107" t="s">
+        <v>16</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="str">
-        <v/>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>paiN Academy</v>
+      <c r="M107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>141</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5135,28 +5416,25 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J108" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K108" t="str">
-        <v>none</v>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>16</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="str">
-        <v/>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>PARIVISION</v>
+      <c r="M108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>142</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5179,28 +5457,25 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J109" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K109" t="str">
-        <v>none</v>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s">
+        <v>16</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="str">
-        <v/>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>Passion UA</v>
+      <c r="M109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>143</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5223,28 +5498,25 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J110" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K110" t="str">
-        <v>none</v>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>16</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="str">
-        <v/>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Permitta</v>
+      <c r="M110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>144</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5267,28 +5539,25 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J111" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K111" t="str">
-        <v>none</v>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" t="s">
+        <v>16</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="str">
-        <v/>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Qiang</v>
+      <c r="M111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>145</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5311,28 +5580,25 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J112" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K112" t="str">
-        <v>none</v>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" t="s">
+        <v>16</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="str">
-        <v/>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>QMISTRY</v>
+      <c r="M112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>146</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5355,28 +5621,25 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J113" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K113" t="str">
-        <v>none</v>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>16</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="str">
-        <v/>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Quantum Bellator Fire</v>
+      <c r="M113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>147</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5399,28 +5662,25 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J114" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K114" t="str">
-        <v>none</v>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>16</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="str">
-        <v/>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>Reason</v>
+      <c r="M114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>148</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5443,28 +5703,25 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J115" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K115" t="str">
-        <v>none</v>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>24</v>
+      </c>
+      <c r="K115" t="s">
+        <v>16</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="str">
-        <v/>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Rebels</v>
+      <c r="M115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>149</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5487,28 +5744,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J116" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K116" t="str">
-        <v>none</v>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" t="s">
+        <v>16</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="str">
-        <v/>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>Red Viperz</v>
+      <c r="M116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>150</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5531,28 +5785,25 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J117" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K117" t="str">
-        <v>none</v>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" t="s">
+        <v>16</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="str">
-        <v/>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Rogue</v>
+      <c r="M117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>151</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5575,28 +5826,25 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J118" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K118" t="str">
-        <v>none</v>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
+        <v>16</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="str">
-        <v/>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Sangal</v>
+      <c r="M118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>152</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5619,28 +5867,25 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J119" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K119" t="str">
-        <v>none</v>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>16</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="str">
-        <v/>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>SAW</v>
+      <c r="M119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>153</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5663,28 +5908,25 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J120" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K120" t="str">
-        <v>none</v>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>24</v>
+      </c>
+      <c r="K120" t="s">
+        <v>16</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="str">
-        <v/>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Shika</v>
+      <c r="M120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>154</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5707,28 +5949,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J121" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K121" t="str">
-        <v>none</v>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" t="s">
+        <v>16</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="str">
-        <v/>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>ShindeN</v>
+      <c r="M121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>155</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5751,28 +5990,25 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J122" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K122" t="str">
-        <v>none</v>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" t="s">
+        <v>16</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="str">
-        <v/>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Skinvault</v>
+      <c r="M122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>156</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5795,28 +6031,25 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J123" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K123" t="str">
-        <v>none</v>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>16</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="str">
-        <v/>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>SKYFURY</v>
+      <c r="M123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>157</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5839,28 +6072,25 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J124" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K124" t="str">
-        <v>none</v>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" t="s">
+        <v>16</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="str">
-        <v/>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>Solid</v>
+      <c r="M124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>158</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5883,28 +6113,25 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J125" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K125" t="str">
-        <v>none</v>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" t="s">
+        <v>16</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="str">
-        <v/>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>Space Soldiers</v>
+      <c r="M125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>159</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5927,28 +6154,25 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J126" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K126" t="str">
-        <v>none</v>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" t="s">
+        <v>16</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="str">
-        <v/>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>Spirit</v>
+      <c r="M126" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>160</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5971,28 +6195,25 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J127" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K127" t="str">
-        <v>none</v>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" t="s">
+        <v>16</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="str">
-        <v/>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>Spirit Academy</v>
+      <c r="M127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>161</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6015,28 +6236,25 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J128" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K128" t="str">
-        <v>none</v>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" t="s">
+        <v>16</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="str">
-        <v/>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>Sprout</v>
+      <c r="M128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>162</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6059,28 +6277,25 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J129" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K129" t="str">
-        <v>none</v>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" t="s">
+        <v>16</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="str">
-        <v/>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>Take Flyte</v>
+      <c r="M129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>163</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6103,28 +6318,25 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J130" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K130" t="str">
-        <v>none</v>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" t="s">
+        <v>16</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="str">
-        <v/>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>TALON</v>
+      <c r="M130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>164</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6147,28 +6359,25 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J131" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K131" t="str">
-        <v>none</v>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>16</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="str">
-        <v/>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>The Dice</v>
+      <c r="M131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>165</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6191,28 +6400,25 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J132" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K132" t="str">
-        <v>none</v>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" t="s">
+        <v>16</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="str">
-        <v/>
-      </c>
-      <c r="N132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>The MongolZ</v>
+      <c r="M132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>166</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6235,28 +6441,25 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J133" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K133" t="str">
-        <v>none</v>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>16</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="str">
-        <v/>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>Tricked</v>
+      <c r="M133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>167</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6279,28 +6482,25 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J134" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K134" t="str">
-        <v>none</v>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>24</v>
+      </c>
+      <c r="K134" t="s">
+        <v>16</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="str">
-        <v/>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>True Rippers</v>
+      <c r="M134" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>168</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6323,28 +6523,25 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J135" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K135" t="str">
-        <v>none</v>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" t="s">
+        <v>16</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="str">
-        <v/>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>Tsunami</v>
+      <c r="M135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>169</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6367,28 +6564,25 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J136" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K136" t="str">
-        <v>none</v>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" t="s">
+        <v>16</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="str">
-        <v/>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>TYLOO</v>
+      <c r="M136" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>170</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6411,28 +6605,25 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J137" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K137" t="str">
-        <v>none</v>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>16</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="str">
-        <v/>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>Underground</v>
+      <c r="M137" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>171</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6455,28 +6646,25 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J138" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K138" t="str">
-        <v>none</v>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" t="s">
+        <v>16</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="str">
-        <v/>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>Vantage</v>
+      <c r="M138" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>172</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6499,28 +6687,25 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J139" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K139" t="str">
-        <v>none</v>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" t="s">
+        <v>16</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="str">
-        <v/>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>Venom</v>
+      <c r="M139" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>173</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -6543,28 +6728,25 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J140" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K140" t="str">
-        <v>none</v>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" t="s">
+        <v>16</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="str">
-        <v/>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>VeryGames</v>
+      <c r="M140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>174</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -6587,28 +6769,25 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J141" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K141" t="str">
-        <v>none</v>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" t="s">
+        <v>24</v>
+      </c>
+      <c r="K141" t="s">
+        <v>16</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="str">
-        <v/>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>Victores Sumus</v>
+      <c r="M141" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>175</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6631,28 +6810,25 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J142" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K142" t="str">
-        <v>none</v>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>16</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="str">
-        <v/>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>Virtus.pro</v>
+      <c r="M142" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>176</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6675,28 +6851,25 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J143" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K143" t="str">
-        <v>none</v>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>21</v>
+      </c>
+      <c r="K143" t="s">
+        <v>16</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="str">
-        <v/>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>Vitality</v>
+      <c r="M143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>177</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -6719,28 +6892,25 @@
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J144" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K144" t="str">
-        <v>none</v>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" t="s">
+        <v>16</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="M144" t="str">
-        <v/>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>Vox Eminor</v>
+      <c r="M144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>178</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -6763,28 +6933,25 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J145" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K145" t="str">
-        <v>none</v>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" t="s">
+        <v>16</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="str">
-        <v/>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>VP.Prodigy</v>
+      <c r="M145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>179</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6807,28 +6974,25 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J146" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K146" t="str">
-        <v>none</v>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" t="s">
+        <v>16</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="str">
-        <v/>
-      </c>
-      <c r="N146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>Wildcard</v>
+      <c r="M146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>180</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -6851,28 +7015,25 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J147" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K147" t="str">
-        <v>none</v>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" t="s">
+        <v>16</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="str">
-        <v/>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>Wildcard Academy</v>
+      <c r="M147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>181</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6895,28 +7056,25 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J148" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K148" t="str">
-        <v>none</v>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" t="s">
+        <v>16</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="str">
-        <v/>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>Wings Up</v>
+      <c r="M148" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>182</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -6939,28 +7097,25 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J149" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K149" t="str">
-        <v>none</v>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" t="s">
+        <v>16</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="str">
-        <v/>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>devils.one</v>
+      <c r="M149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>183</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -6983,28 +7138,25 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J150" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K150" t="str">
-        <v>none</v>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" t="s">
+        <v>16</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="str">
-        <v>2026-02-18T21:23:30.347Z</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Luminosity</v>
+      <c r="M150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>184</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7027,28 +7179,25 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J151" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K151" t="str">
-        <v>none</v>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>24</v>
+      </c>
+      <c r="K151" t="s">
+        <v>16</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="str">
-        <v>2026-02-18T21:23:18.851Z</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Sharks</v>
+      <c r="M151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>185</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7071,28 +7220,25 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J152" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K152" t="str">
-        <v>none</v>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" t="s">
+        <v>16</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="str">
-        <v>2026-02-18T21:23:12.952Z</v>
-      </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>IHC</v>
+      <c r="M152" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>186</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7115,28 +7261,25 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J153" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K153" t="str">
-        <v>none</v>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
+        <v>16</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="str">
-        <v>2026-02-18T21:23:06.529Z</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>Kappa Bar</v>
+      <c r="M153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>187</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7159,28 +7302,25 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J154" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K154" t="str">
-        <v>none</v>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>24</v>
+      </c>
+      <c r="K154" t="s">
+        <v>16</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="str">
-        <v>2026-02-18T21:22:57.244Z</v>
-      </c>
-      <c r="N154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>Complexity</v>
+      <c r="M154" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>188</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7203,28 +7343,25 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J155" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K155" t="str">
-        <v>none</v>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>15</v>
+      </c>
+      <c r="K155" t="s">
+        <v>16</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="str">
-        <v>2026-02-18T21:22:48.652Z</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>Case</v>
+      <c r="M155" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>189</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7247,28 +7384,25 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J156" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K156" t="str">
-        <v>none</v>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156" t="s">
+        <v>16</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="str">
-        <v>2026-02-18T21:22:39.402Z</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>Mythic</v>
+      <c r="M156" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>190</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7291,28 +7425,25 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J157" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K157" t="str">
-        <v>none</v>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" t="s">
+        <v>16</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="str">
-        <v>2026-02-18T21:22:32.047Z</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Enemy</v>
+      <c r="M157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>191</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7335,28 +7466,25 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J158" t="str">
-        <v>EU</v>
-      </c>
-      <c r="K158" t="str">
-        <v>none</v>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>24</v>
+      </c>
+      <c r="K158" t="s">
+        <v>16</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="str">
-        <v>2026-02-18T21:22:20.745Z</v>
-      </c>
-      <c r="N158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>FURIA</v>
+      <c r="M158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>192</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7379,28 +7507,25 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J159" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K159" t="str">
-        <v>none</v>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" t="s">
+        <v>16</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="str">
-        <v>2026-02-18T21:22:13.604Z</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>KRU</v>
+      <c r="M159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>193</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7423,28 +7548,25 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J160" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K160" t="str">
-        <v>none</v>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" t="s">
+        <v>16</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="str">
-        <v>2026-02-18T21:22:06.663Z</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Imperial</v>
+      <c r="M160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>194</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7467,28 +7589,25 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J161" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K161" t="str">
-        <v>none</v>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>15</v>
+      </c>
+      <c r="K161" t="s">
+        <v>16</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="str">
-        <v>2026-02-18T21:21:57.658Z</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>9z</v>
+      <c r="M161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>195</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7511,28 +7630,25 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J162" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K162" t="str">
-        <v>none</v>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>15</v>
+      </c>
+      <c r="K162" t="s">
+        <v>16</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="str">
-        <v>2026-02-18T21:21:44.273Z</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>paiN</v>
+      <c r="M162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>196</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7555,28 +7671,25 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J163" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K163" t="str">
-        <v>none</v>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K163" t="s">
+        <v>16</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="str">
-        <v>2026-02-18T21:21:14.058Z</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Legacy</v>
+      <c r="M163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>197</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -7599,28 +7712,25 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J164" t="str">
-        <v>AM</v>
-      </c>
-      <c r="K164" t="str">
-        <v>none</v>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>15</v>
+      </c>
+      <c r="K164" t="s">
+        <v>16</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="str">
-        <v>2026-02-18T21:21:06.168Z</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Vexed</v>
+      <c r="M164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>198</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7643,28 +7753,26 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="str">
-        <v>Tier 3</v>
-      </c>
-      <c r="J165" t="str">
-        <v>AS/SIS/ESEA</v>
-      </c>
-      <c r="K165" t="str">
-        <v>none</v>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>21</v>
+      </c>
+      <c r="K165" t="s">
+        <v>16</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="str">
-        <v>2026-02-18T21:19:58.722Z</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
+      <c r="M165" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N165"/>
+    <ignoredError sqref="A1:M165" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>